--- a/02_MasterWifoMannheim/99_Backup/Course97.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course97.xlsx
@@ -1,130 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD32051265F592811599D18775021FA56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F87E2162-D51B-4571-A9CD-9FB715A6CEE6}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 614 Corporate Knowledge Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Companies have realized that the knowledge of their professionals is a decisive factor in competition. knowledge in the long term. This lecture deals with the question of how the creation acquisition, transfer, storage, retrieval, and use of knowledge can be supported with the information technology and where the limits of such efforts are. support different knowledge processes.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Course participants will be able to:  explain the role and importance of knowledge for organizations  understand and explain the processes of knowledge management (KM)  describe and evaluate the possibilities to support the different knowledge processes through information technology  understand and evaluate different design principles of KM systems  evaluate and apply organizational and technological mechanisms that ensure the use of KM systems</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture / Exercise 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.); optional case study (20%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Kai Spohrer</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,142 +420,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="255.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 614 Corporate Knowledge Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Companies have realized that the knowledge of their professionals is a decisive factor in competition. knowledge in the long term. This lecture deals with the question of how the creation acquisition, transfer, storage, retrieval, and use of knowledge can be supported with the information technology and where the limits of such efforts are. support different knowledge processes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Course participants will be able to:  explain the role and importance of knowledge for organizations  understand and explain the processes of knowledge management (KM)  describe and evaluate the possibilities to support the different knowledge processes through information technology  understand and evaluate different design principles of KM systems  evaluate and apply organizational and technological mechanisms that ensure the use of KM systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture / Exercise 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.); optional case study (20%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Kai Spohrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
